--- a/data/centres_keep.xlsx
+++ b/data/centres_keep.xlsx
@@ -247,10 +247,10 @@
     <t>Lundi/Mardi/Mercredi</t>
   </si>
   <si>
-    <t>Lundi,Mardi,Mercredi,Jeudi,Vendredi</t>
-  </si>
-  <si>
-    <t>Lundi,Mardi,Mercredi,Jeudi,Vendredi (?)</t>
+    <t>Lundi,Mardi,Mercredi,Vendredi</t>
+  </si>
+  <si>
+    <t>Lundi,Mardi,Mercredi,Vendredi (?)</t>
   </si>
   <si>
     <t>Toulouse/Negogousses(Les Arenes)</t>
